--- a/Datos/Anuario2024/140107_EspaciosEjercicioFisico.xlsx
+++ b/Datos/Anuario2024/140107_EspaciosEjercicioFisico.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8745" tabRatio="827"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="0" sheetId="31" r:id="rId1"/>
+    <sheet name="1" sheetId="30" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
@@ -16,147 +22,247 @@
     <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
+    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
     <definedName name="_R1_4">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_1">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_2">#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_3">#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
+    <definedName name="_R2_4" localSheetId="1">'[1]4.5'!$A$1:$H$6</definedName>
     <definedName name="_R2_4">'[2]4.5'!$A$1:$H$6</definedName>
+    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R2_5" localSheetId="1">'[1]4.6'!$A$1:$C$6</definedName>
     <definedName name="_R2_5">'[2]4.6'!$A$1:$C$6</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="0">'[3]9.5'!$A$1:$H$7</definedName>
+    <definedName name="_R3_5" localSheetId="1">'[3]9.5'!$A$1:$H$7</definedName>
     <definedName name="_R3_5">'[4]9.5'!$A$1:$H$7</definedName>
+    <definedName name="_R3_6" localSheetId="0">'[3]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_6" localSheetId="1">'[3]9.6'!$A$1:$F$7</definedName>
     <definedName name="_R3_6">'[4]9.6'!$A$1:$F$7</definedName>
+    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
+    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
     <definedName name="_R3_7">#REF!</definedName>
+    <definedName name="_R3_8" localSheetId="0">'[3]9.7'!$A$1:$F$7</definedName>
+    <definedName name="_R3_8" localSheetId="1">'[3]9.7'!$A$1:$F$7</definedName>
     <definedName name="_R3_8">'[4]9.7'!$A$1:$F$7</definedName>
+    <definedName name="_R3_9" localSheetId="0">'[3]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R3_9" localSheetId="1">'[3]9.8'!$A$1:$F$18</definedName>
     <definedName name="_R3_9">'[4]9.8'!$A$1:$F$18</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
     <definedName name="_R4_7">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
+    <definedName name="_R5_8" localSheetId="1">#REF!</definedName>
     <definedName name="_R5_8">#REF!</definedName>
+    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R8_1">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="0">'[1]4.5'!$A$1:$H$6</definedName>
-    <definedName name="_R2_5" localSheetId="0">'[1]4.6'!$A$1:$C$6</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="0">'[3]9.5'!$A$1:$H$7</definedName>
-    <definedName name="_R3_6" localSheetId="0">'[3]9.6'!$A$1:$F$7</definedName>
-    <definedName name="_R3_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="0">'[3]9.7'!$A$1:$F$7</definedName>
-    <definedName name="_R3_9" localSheetId="0">'[3]9.8'!$A$1:$F$18</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R8_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_4" localSheetId="1">#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="1">'[1]4.5'!$A$1:$H$6</definedName>
-    <definedName name="_R2_5" localSheetId="1">'[1]4.6'!$A$1:$C$6</definedName>
-    <definedName name="_R3_5" localSheetId="1">'[3]9.5'!$A$1:$H$7</definedName>
-    <definedName name="_R3_6" localSheetId="1">'[3]9.6'!$A$1:$F$7</definedName>
-    <definedName name="_R3_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R3_8" localSheetId="1">'[3]9.7'!$A$1:$F$7</definedName>
-    <definedName name="_R3_9" localSheetId="1">'[3]9.8'!$A$1:$F$18</definedName>
-    <definedName name="_R4_7" localSheetId="1">#REF!</definedName>
-    <definedName name="_R5_8" localSheetId="1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Equipos</t>
+  </si>
+  <si>
+    <t>Río Turia</t>
+  </si>
+  <si>
+    <t>Zonas Biosaludables</t>
+  </si>
+  <si>
+    <t>Zona Voleibol Playa</t>
+  </si>
+  <si>
+    <t>Zona Multideporte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nota: Los equipos del tramo X-XI del río Turia son equipos de musculación. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>En las playas</t>
+  </si>
+  <si>
+    <t>En otras zonas</t>
+  </si>
+  <si>
+    <t>ESPACIOS DE EJERCICIO FÍSICO</t>
+  </si>
+  <si>
+    <t>1. Espacios de ejercicio físico. 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuente: Servicio de Parques y Jardines. Servicio de Playas. Ayuntamiento de València. </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
-      <vertAlign val="superscript"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -189,62 +295,63 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -313,13 +420,25 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FF008000"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -560,8 +679,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -802,8 +921,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -1396,8 +1515,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2275,509 +2394,428 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.5703125" customWidth="1" style="13" min="1" max="1"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="13">
-      <c r="A1" s="23" t="inlineStr">
-        <is>
-          <t>ESPACIOS DE EJERCICIO FÍSICO</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.5703125" customWidth="1" style="13" min="1" max="1"/>
-    <col width="10.7109375" customWidth="1" style="13" min="2" max="3"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="13">
-      <c r="A1" s="23" t="inlineStr">
-        <is>
-          <t>1. Espacios de ejercicio físico. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="19" t="n"/>
-      <c r="C2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="13">
-      <c r="A3" s="11" t="n"/>
-      <c r="B3" s="16" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t>Equipos</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="13">
-      <c r="A4" s="18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Total </t>
-        </is>
-      </c>
-      <c r="B4" s="17" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="17">
         <v>130</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="17">
         <v>715</v>
       </c>
-      <c r="D4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="13">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>En las playas</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="n">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="5">
         <v>49</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="13">
-      <c r="A6" s="14" t="inlineStr">
-        <is>
-          <t>Zonas Biosaludables</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="n">
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="n">
+      <c r="C6" s="6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="13">
-      <c r="A7" s="15" t="inlineStr">
-        <is>
-          <t>Zona Voleibol Playa</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="n">
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5">
         <v>1</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="13">
-      <c r="A8" s="14" t="inlineStr">
-        <is>
-          <t>Zona Multideporte</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="n">
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4">
         <v>1</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="13">
-      <c r="A9" s="7" t="inlineStr">
-        <is>
-          <t>En otras zonas</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="n">
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5">
         <v>123</v>
       </c>
-      <c r="C9" s="5" t="n">
+      <c r="C9" s="5">
         <v>666</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="13">
-      <c r="A10" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="n">
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="13">
-      <c r="A11" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n">
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="n">
+      <c r="C11" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="13">
-      <c r="A12" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="n">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="13">
-      <c r="A13" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n">
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
         <v>6</v>
       </c>
-      <c r="C13" s="5" t="n">
+      <c r="C13" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="13">
-      <c r="A14" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="n">
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1" s="13">
-      <c r="A15" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n">
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1" s="13">
-      <c r="A16" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="n">
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1" s="13">
-      <c r="A17" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>43</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1" s="13">
-      <c r="A18" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" s="13">
-      <c r="A19" s="15" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
         <v>16</v>
       </c>
-      <c r="C19" s="5" t="n">
+      <c r="C19" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1" s="13">
-      <c r="A20" s="14" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="n">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
         <v>6</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>52</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1" s="13">
-      <c r="A21" s="15" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" s="13">
-      <c r="A22" s="14" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="n">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
         <v>9</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1" s="13">
-      <c r="A23" s="15" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="5" t="n">
+      <c r="C23" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1" s="13">
-      <c r="A24" s="14" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4">
         <v>10</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>56</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1" s="13">
-      <c r="A25" s="15" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
         <v>7</v>
       </c>
-      <c r="C25" s="5" t="n">
+      <c r="C25" s="5">
         <v>32</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1" s="13">
-      <c r="A26" s="14" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
         <v>3</v>
       </c>
-      <c r="C26" s="4" t="n">
+      <c r="C26" s="4">
         <v>11</v>
       </c>
     </row>
-    <row r="27" ht="15" customHeight="1" s="13">
-      <c r="A27" s="15" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
         <v>4</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>23</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1" s="13">
-      <c r="A28" s="14" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="n">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="n">
+      <c r="C28" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1" s="13">
-      <c r="A29" s="15" t="inlineStr">
-        <is>
-          <t>Río Turia</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="n">
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="5">
         <v>13</v>
       </c>
-      <c r="C29" s="5" t="n">
+      <c r="C29" s="5">
         <v>112</v>
       </c>
     </row>
-    <row r="30" ht="12.75" customHeight="1" s="13">
-      <c r="A30" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nota: Los equipos del tramo X-XI del río Turia son equipos de musculación. </t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="n"/>
-      <c r="C30" s="6" t="n"/>
-    </row>
-    <row r="31" ht="12.75" customHeight="1" s="13">
-      <c r="A31" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fuente: Servicio de Parques y Jardines. Servicio de Playas. Ayuntamiento de València. </t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="10" t="n"/>
-      <c r="B33" s="10" t="n"/>
-      <c r="C33" s="10" t="n"/>
-      <c r="D33" s="20" t="n"/>
-      <c r="E33" s="20" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="21" t="n"/>
-      <c r="E36" s="1" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="21" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="1" t="n"/>
-      <c r="C39" s="1" t="n"/>
-      <c r="D39" s="1" t="n"/>
-      <c r="E39" s="1" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="21" t="n"/>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="1" t="n"/>
-      <c r="C41" s="1" t="n"/>
-      <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="21" t="n"/>
-      <c r="B42" s="1" t="n"/>
-      <c r="C42" s="22" t="n"/>
-      <c r="D42" s="21" t="n"/>
-      <c r="E42" s="21" t="n"/>
+    <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="4294967293"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>